--- a/샘플데이터/주문서 데이터-정규화 실습.xlsx
+++ b/샘플데이터/주문서 데이터-정규화 실습.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\개발자 문서\040. 데이터베이스 DataBase\데이터변환용 자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\Reference\샘플데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A282F9-F6F9-4420-A32A-B40DA20DBA9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{74AE8F50-5E75-4348-9C15-9DBE4A03E71C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="주문원장" sheetId="1" r:id="rId1"/>
@@ -3917,7 +3916,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4289,11 +4288,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5F796E-494F-4D4A-A5A8-74EE6816C08F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F331"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -10927,7 +10926,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F331">
+  <sortState ref="B2:F331">
     <sortCondition ref="B2:B331"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10937,7 +10936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4808AFA-5B1D-4FC1-85E0-572C82EEF77E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C51"/>
   <sheetViews>
@@ -11520,11 +11519,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6F88E-3274-4EDF-A87F-8E5DFF336F3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
